--- a/rapport journalier/Rapport journalier - Ahmed.xlsx
+++ b/rapport journalier/Rapport journalier - Ahmed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="11">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -43,7 +43,16 @@
     <t xml:space="preserve">DIFICULTE:</t>
   </si>
   <si>
-    <t xml:space="preserve">aucune presque</t>
+    <t xml:space="preserve">probleme d’affichage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reglage des problemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j’ai essayer de mettre les action sur les bouttons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">les evenement</t>
   </si>
 </sst>
 </file>
@@ -210,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +285,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,8 +395,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,27 +485,35 @@
       <c r="B13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="17" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9"/>
+      <c r="C15" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,7 +521,7 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="11"/>
@@ -510,7 +531,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="22"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9"/>
@@ -539,27 +560,35 @@
       <c r="B23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18" t="s">
+      <c r="C23" s="17" t="n">
+        <v>44039</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="19"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9"/>
+      <c r="C25" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="J25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,17 +596,19 @@
       <c r="J26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="22"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9"/>
@@ -606,21 +637,23 @@
       <c r="B33" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18" t="s">
+      <c r="C33" s="17" t="n">
+        <v>43838</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="19"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J34" s="8"/>
@@ -634,7 +667,7 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="11"/>
@@ -644,7 +677,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="22"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="9"/>
@@ -673,21 +706,21 @@
       <c r="B43" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="19"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="8"/>
@@ -701,7 +734,7 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="11"/>
@@ -711,7 +744,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="22"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="9"/>
@@ -740,21 +773,21 @@
       <c r="B53" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18" t="s">
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
       <c r="H53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="19"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="8"/>
@@ -768,7 +801,7 @@
       <c r="J56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="11"/>
@@ -778,7 +811,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="22"/>
+      <c r="J57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="9"/>
@@ -807,21 +840,21 @@
       <c r="B63" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18" t="s">
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I63" s="17"/>
-      <c r="J63" s="19"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="8"/>
@@ -835,7 +868,7 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="11"/>
@@ -845,7 +878,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="22"/>
+      <c r="J67" s="23"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="9"/>
@@ -874,21 +907,21 @@
       <c r="B73" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="18" t="s">
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
       <c r="H73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="19"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J74" s="8"/>
@@ -902,7 +935,7 @@
       <c r="J76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="11"/>
@@ -912,7 +945,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="22"/>
+      <c r="J77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="9"/>
@@ -941,21 +974,21 @@
       <c r="B83" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
       <c r="H83" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="19"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="20"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J84" s="8"/>
@@ -969,7 +1002,7 @@
       <c r="J86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="11"/>
@@ -979,7 +1012,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="22"/>
+      <c r="J87" s="23"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="9"/>
@@ -1008,21 +1041,21 @@
       <c r="B93" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="18" t="s">
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
       <c r="H93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I93" s="17"/>
-      <c r="J93" s="19"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="8"/>
@@ -1036,7 +1069,7 @@
       <c r="J96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="11"/>
@@ -1046,7 +1079,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
-      <c r="J97" s="22"/>
+      <c r="J97" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="9"/>
@@ -1075,21 +1108,21 @@
       <c r="B103" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="18" t="s">
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
       <c r="H103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="19"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="20"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J104" s="8"/>
@@ -1103,7 +1136,7 @@
       <c r="J106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C107" s="11"/>
@@ -1113,7 +1146,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
-      <c r="J107" s="22"/>
+      <c r="J107" s="23"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="9"/>
@@ -1142,21 +1175,21 @@
       <c r="B113" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="18" t="s">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
       <c r="H113" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I113" s="17"/>
-      <c r="J113" s="19"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="20"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J114" s="8"/>
@@ -1170,7 +1203,7 @@
       <c r="J116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="11"/>
@@ -1180,7 +1213,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
       <c r="I117" s="11"/>
-      <c r="J117" s="22"/>
+      <c r="J117" s="23"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="9"/>
@@ -1209,21 +1242,21 @@
       <c r="B123" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="18" t="s">
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
       <c r="H123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="19"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="20"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J124" s="8"/>
@@ -1237,7 +1270,7 @@
       <c r="J126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="11"/>
@@ -1247,7 +1280,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="11"/>
-      <c r="J127" s="22"/>
+      <c r="J127" s="23"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="9"/>
@@ -1276,21 +1309,21 @@
       <c r="B133" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="18" t="s">
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
       <c r="H133" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I133" s="17"/>
-      <c r="J133" s="19"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J134" s="8"/>
@@ -1304,7 +1337,7 @@
       <c r="J136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="21" t="s">
+      <c r="B137" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="11"/>
@@ -1314,7 +1347,7 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="11"/>
-      <c r="J137" s="22"/>
+      <c r="J137" s="23"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="9"/>
@@ -1343,21 +1376,21 @@
       <c r="B143" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="18" t="s">
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
       <c r="H143" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I143" s="17"/>
-      <c r="J143" s="19"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="20" t="s">
+      <c r="B144" s="21" t="s">
         <v>3</v>
       </c>
       <c r="J144" s="8"/>
@@ -1371,7 +1404,7 @@
       <c r="J146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="21" t="s">
+      <c r="B147" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="11"/>
@@ -1381,7 +1414,7 @@
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
-      <c r="J147" s="22"/>
+      <c r="J147" s="23"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="9"/>

--- a/rapport journalier/Rapport journalier - Ahmed.xlsx
+++ b/rapport journalier/Rapport journalier - Ahmed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -43,16 +43,52 @@
     <t xml:space="preserve">DIFICULTE:</t>
   </si>
   <si>
-    <t xml:space="preserve">probleme d’affichage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reglage des problemes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j’ai essayer de mettre les action sur les bouttons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">les evenement</t>
+    <t xml:space="preserve">aucune presque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probleme avec les evenemts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop up pett sitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creation du feed back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l’affichage deuis le fichier jeson ne se fesait pas correctement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feed back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajustement de l’affichage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout du boutton like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuperation du nmbre de clique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">et affichage des like </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification du boutton on star </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuperation  du nombre d’etoile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changement des etoile on boutton radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuperation de la valeur des bouton radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajout d’une zone de texte pour les commentaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuperation du commentaire</t>
   </si>
 </sst>
 </file>
@@ -395,8 +431,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,9 +547,6 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9"/>
-      <c r="C15" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,7 +557,9 @@
       <c r="B17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -561,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="17" t="n">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="19" t="s">
@@ -580,15 +615,12 @@
         <v>3</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9"/>
-      <c r="C25" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,9 +631,7 @@
       <c r="B27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -638,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="17" t="n">
-        <v>43838</v>
+        <v>44042</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="19" t="s">
@@ -656,6 +686,9 @@
       <c r="B34" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="C34" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="J34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +703,9 @@
       <c r="B37" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -706,7 +741,9 @@
       <c r="B43" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="17" t="n">
+        <v>44045</v>
+      </c>
       <c r="D43" s="18"/>
       <c r="E43" s="19" t="s">
         <v>1</v>
@@ -723,6 +760,9 @@
       <c r="B44" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="C44" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="J44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +777,9 @@
       <c r="B47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -773,7 +815,9 @@
       <c r="B53" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="17" t="n">
+        <v>44049</v>
+      </c>
       <c r="D53" s="18"/>
       <c r="E53" s="19" t="s">
         <v>1</v>
@@ -790,10 +834,16 @@
       <c r="B54" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="C54" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="J54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="9"/>
+      <c r="C55" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="J55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,7 +854,9 @@
       <c r="B57" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="11"/>
+      <c r="C57" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -815,6 +867,9 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="9"/>
+      <c r="C58" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="J58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,7 +895,9 @@
       <c r="B63" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="18"/>
+      <c r="C63" s="17" t="n">
+        <v>44052</v>
+      </c>
       <c r="D63" s="18"/>
       <c r="E63" s="19" t="s">
         <v>1</v>
@@ -857,10 +914,16 @@
       <c r="B64" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="C64" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="J64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="9"/>
+      <c r="C65" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="J65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,7 +934,9 @@
       <c r="B67" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
@@ -907,7 +972,9 @@
       <c r="B73" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="18"/>
+      <c r="C73" s="17" t="n">
+        <v>44054</v>
+      </c>
       <c r="D73" s="18"/>
       <c r="E73" s="19" t="s">
         <v>1</v>
@@ -924,10 +991,16 @@
       <c r="B74" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="C74" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="J74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="9"/>
+      <c r="C75" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="J75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +1011,9 @@
       <c r="B77" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="11"/>
+      <c r="C77" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -974,7 +1049,9 @@
       <c r="B83" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="18"/>
+      <c r="C83" s="17" t="n">
+        <v>44059</v>
+      </c>
       <c r="D83" s="18"/>
       <c r="E83" s="19" t="s">
         <v>1</v>
@@ -991,10 +1068,16 @@
       <c r="B84" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="C84" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="J84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="9"/>
+      <c r="C85" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="J85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,7 +1088,9 @@
       <c r="B87" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="11"/>
+      <c r="C87" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
